--- a/input/INVENTAIRE072023.xlsx
+++ b/input/INVENTAIRE072023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\donnesavrilmaijuinjuillet\Données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP\Desktop\dashbord\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8607FE-193F-4117-916C-B8DCD19CFD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTAIRE072023" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="422">
   <si>
     <t>Famille/Produit</t>
   </si>
@@ -285,9 +286,6 @@
     <t>1 380 000 CFA</t>
   </si>
   <si>
-    <t>MOET CHANDOM</t>
-  </si>
-  <si>
     <t>630 000 CFA</t>
   </si>
   <si>
@@ -297,9 +295,6 @@
     <t>570 000 CFA</t>
   </si>
   <si>
-    <t>MOET CHANDOM ROSE</t>
-  </si>
-  <si>
     <t>90 000 CFA</t>
   </si>
   <si>
@@ -1288,12 +1283,15 @@
   </si>
   <si>
     <t>Juillet</t>
+  </si>
+  <si>
+    <t>MOET CHANDON ROSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1775,48 +1773,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2093,14 +2091,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L493"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2134,10 +2135,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2145,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L3">
         <v>2023</v>
@@ -2153,7 +2154,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L4">
         <v>2023</v>
@@ -2188,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L5">
         <v>2023</v>
@@ -2196,7 +2197,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L6">
         <v>2023</v>
@@ -2231,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L7">
         <v>2023</v>
@@ -2239,7 +2240,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L8">
         <v>2023</v>
@@ -2274,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L9">
         <v>2023</v>
@@ -2282,7 +2283,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L10">
         <v>2023</v>
@@ -2317,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L11">
         <v>2023</v>
@@ -2325,7 +2326,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L12">
         <v>2023</v>
@@ -2360,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L13">
         <v>2023</v>
@@ -2368,7 +2369,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L14">
         <v>2023</v>
@@ -2376,7 +2377,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L15">
         <v>2023</v>
@@ -2384,7 +2385,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L16">
         <v>2023</v>
@@ -2395,7 +2396,7 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L17">
         <v>2023</v>
@@ -2403,7 +2404,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L18">
         <v>2023</v>
@@ -2441,7 +2442,7 @@
         <v>173250</v>
       </c>
       <c r="K19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L19">
         <v>2023</v>
@@ -2449,7 +2450,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L20">
         <v>2023</v>
@@ -2487,7 +2488,7 @@
         <v>173250</v>
       </c>
       <c r="K21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L21">
         <v>2023</v>
@@ -2495,7 +2496,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L22">
         <v>2023</v>
@@ -2503,7 +2504,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L23">
         <v>2023</v>
@@ -2511,7 +2512,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L24">
         <v>2023</v>
@@ -2522,7 +2523,7 @@
         <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L25">
         <v>2023</v>
@@ -2530,7 +2531,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L26">
         <v>2023</v>
@@ -2568,7 +2569,7 @@
         <v>205500</v>
       </c>
       <c r="K27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L27">
         <v>2023</v>
@@ -2576,7 +2577,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L28">
         <v>2023</v>
@@ -2614,7 +2615,7 @@
         <v>42000</v>
       </c>
       <c r="K29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L29">
         <v>2023</v>
@@ -2622,7 +2623,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L30">
         <v>2023</v>
@@ -2660,7 +2661,7 @@
         <v>465000</v>
       </c>
       <c r="K31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L31">
         <v>2023</v>
@@ -2668,7 +2669,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L32">
         <v>2023</v>
@@ -2706,7 +2707,7 @@
         <v>27000</v>
       </c>
       <c r="K33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L33">
         <v>2023</v>
@@ -2714,7 +2715,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L34">
         <v>2023</v>
@@ -2752,7 +2753,7 @@
         <v>286000</v>
       </c>
       <c r="K35" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L35">
         <v>2023</v>
@@ -2760,7 +2761,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L36">
         <v>2023</v>
@@ -2798,7 +2799,7 @@
         <v>350000</v>
       </c>
       <c r="K37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L37">
         <v>2023</v>
@@ -2806,7 +2807,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L38">
         <v>2023</v>
@@ -2844,7 +2845,7 @@
         <v>84000</v>
       </c>
       <c r="K39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L39">
         <v>2023</v>
@@ -2852,7 +2853,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L40">
         <v>2023</v>
@@ -2890,7 +2891,7 @@
         <v>140000</v>
       </c>
       <c r="K41" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L41">
         <v>2023</v>
@@ -2898,7 +2899,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L42">
         <v>2023</v>
@@ -2936,7 +2937,7 @@
         <v>6000</v>
       </c>
       <c r="K43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L43">
         <v>2023</v>
@@ -2944,7 +2945,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L44">
         <v>2023</v>
@@ -2982,7 +2983,7 @@
         <v>266000</v>
       </c>
       <c r="K45" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L45">
         <v>2023</v>
@@ -2990,7 +2991,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L46">
         <v>2023</v>
@@ -3028,7 +3029,7 @@
         <v>1871500</v>
       </c>
       <c r="K47" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L47">
         <v>2023</v>
@@ -3036,7 +3037,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L48">
         <v>2023</v>
@@ -3044,7 +3045,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L49">
         <v>2023</v>
@@ -3052,7 +3053,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L50">
         <v>2023</v>
@@ -3063,7 +3064,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L51">
         <v>2023</v>
@@ -3071,7 +3072,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L52">
         <v>2023</v>
@@ -3109,7 +3110,7 @@
         <v>40000</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L53">
         <v>2023</v>
@@ -3117,7 +3118,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L54">
         <v>2023</v>
@@ -3155,7 +3156,7 @@
         <v>69000</v>
       </c>
       <c r="K55" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L55">
         <v>2023</v>
@@ -3163,7 +3164,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L56">
         <v>2023</v>
@@ -3201,7 +3202,7 @@
         <v>12000</v>
       </c>
       <c r="K57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L57">
         <v>2023</v>
@@ -3209,7 +3210,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L58">
         <v>2023</v>
@@ -3247,7 +3248,7 @@
         <v>24000</v>
       </c>
       <c r="K59" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L59">
         <v>2023</v>
@@ -3255,7 +3256,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K60" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L60">
         <v>2023</v>
@@ -3293,7 +3294,7 @@
         <v>168000</v>
       </c>
       <c r="K61" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L61">
         <v>2023</v>
@@ -3301,7 +3302,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K62" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L62">
         <v>2023</v>
@@ -3339,7 +3340,7 @@
         <v>180000</v>
       </c>
       <c r="K63" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L63">
         <v>2023</v>
@@ -3347,7 +3348,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L64">
         <v>2023</v>
@@ -3385,7 +3386,7 @@
         <v>241250</v>
       </c>
       <c r="K65" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L65">
         <v>2023</v>
@@ -3393,7 +3394,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K66" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L66">
         <v>2023</v>
@@ -3431,7 +3432,7 @@
         <v>94500</v>
       </c>
       <c r="K67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L67">
         <v>2023</v>
@@ -3439,7 +3440,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K68" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L68">
         <v>2023</v>
@@ -3477,7 +3478,7 @@
         <v>42000</v>
       </c>
       <c r="K69" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L69">
         <v>2023</v>
@@ -3485,7 +3486,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K70" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L70">
         <v>2023</v>
@@ -3523,7 +3524,7 @@
         <v>30000</v>
       </c>
       <c r="K71" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L71">
         <v>2023</v>
@@ -3531,7 +3532,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L72">
         <v>2023</v>
@@ -3569,7 +3570,7 @@
         <v>69000</v>
       </c>
       <c r="K73" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L73">
         <v>2023</v>
@@ -3577,7 +3578,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K74" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L74">
         <v>2023</v>
@@ -3615,7 +3616,7 @@
         <v>92000</v>
       </c>
       <c r="K75" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L75">
         <v>2023</v>
@@ -3623,7 +3624,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K76" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L76">
         <v>2023</v>
@@ -3661,7 +3662,7 @@
         <v>1061750</v>
       </c>
       <c r="K77" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L77">
         <v>2023</v>
@@ -3669,7 +3670,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K78" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L78">
         <v>2023</v>
@@ -3677,7 +3678,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K79" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L79">
         <v>2023</v>
@@ -3685,7 +3686,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K80" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L80">
         <v>2023</v>
@@ -3696,7 +3697,7 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L81">
         <v>2023</v>
@@ -3704,7 +3705,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K82" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L82">
         <v>2023</v>
@@ -3742,7 +3743,7 @@
         <v>110000</v>
       </c>
       <c r="K83" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L83">
         <v>2023</v>
@@ -3750,7 +3751,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K84" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L84">
         <v>2023</v>
@@ -3788,7 +3789,7 @@
         <v>1380000</v>
       </c>
       <c r="K85" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L85">
         <v>2023</v>
@@ -3796,7 +3797,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K86" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L86">
         <v>2023</v>
@@ -3804,7 +3805,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>9</v>
@@ -3819,22 +3820,22 @@
         <v>9</v>
       </c>
       <c r="F87" t="s">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
         <v>89</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>90</v>
-      </c>
-      <c r="I87" t="s">
-        <v>91</v>
       </c>
       <c r="J87">
         <v>570000</v>
       </c>
       <c r="K87" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L87">
         <v>2023</v>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K88" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L88">
         <v>2023</v>
@@ -3850,7 +3851,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3865,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -3874,13 +3875,13 @@
         <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J89">
         <v>90000</v>
       </c>
       <c r="K89" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L89">
         <v>2023</v>
@@ -3888,7 +3889,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L90">
         <v>2023</v>
@@ -3896,7 +3897,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>19</v>
@@ -3911,7 +3912,7 @@
         <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
@@ -3920,13 +3921,13 @@
         <v>58</v>
       </c>
       <c r="I91" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J91">
         <v>1150000</v>
       </c>
       <c r="K91" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L91">
         <v>2023</v>
@@ -3934,7 +3935,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K92" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L92">
         <v>2023</v>
@@ -3942,7 +3943,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -3957,22 +3958,22 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
+        <v>96</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>97</v>
+      </c>
+      <c r="I93" t="s">
         <v>98</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="s">
-        <v>99</v>
-      </c>
-      <c r="I93" t="s">
-        <v>100</v>
       </c>
       <c r="J93">
         <v>365000</v>
       </c>
       <c r="K93" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L93">
         <v>2023</v>
@@ -3980,7 +3981,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L94">
         <v>2023</v>
@@ -3988,7 +3989,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -4003,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G95" t="s">
         <v>12</v>
@@ -4012,13 +4013,13 @@
         <v>58</v>
       </c>
       <c r="I95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J95">
         <v>900000</v>
       </c>
       <c r="K95" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L95">
         <v>2023</v>
@@ -4026,7 +4027,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K96" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L96">
         <v>2023</v>
@@ -4034,7 +4035,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4049,13 +4050,13 @@
         <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I97" t="s">
         <v>35</v>
@@ -4064,7 +4065,7 @@
         <v>350000</v>
       </c>
       <c r="K97" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L97">
         <v>2023</v>
@@ -4072,7 +4073,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K98" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L98">
         <v>2023</v>
@@ -4080,7 +4081,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>14</v>
@@ -4095,7 +4096,7 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
@@ -4104,13 +4105,13 @@
         <v>86</v>
       </c>
       <c r="I99" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J99">
         <v>1005000</v>
       </c>
       <c r="K99" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L99">
         <v>2023</v>
@@ -4118,7 +4119,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L100">
         <v>2023</v>
@@ -4126,7 +4127,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B101">
         <v>84</v>
@@ -4141,22 +4142,22 @@
         <v>85</v>
       </c>
       <c r="F101" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>110</v>
+      </c>
+      <c r="I101" t="s">
         <v>111</v>
-      </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" t="s">
-        <v>112</v>
-      </c>
-      <c r="I101" t="s">
-        <v>113</v>
       </c>
       <c r="J101">
         <v>5920000</v>
       </c>
       <c r="K101" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L101">
         <v>2023</v>
@@ -4164,7 +4165,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L102">
         <v>2023</v>
@@ -4172,7 +4173,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K103" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L103">
         <v>2023</v>
@@ -4180,7 +4181,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K104" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L104">
         <v>2023</v>
@@ -4188,10 +4189,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K105" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L105">
         <v>2023</v>
@@ -4199,7 +4200,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K106" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L106">
         <v>2023</v>
@@ -4207,7 +4208,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B107">
         <v>91</v>
@@ -4222,22 +4223,22 @@
         <v>116</v>
       </c>
       <c r="F107" t="s">
+        <v>114</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>115</v>
+      </c>
+      <c r="I107" t="s">
         <v>116</v>
-      </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" t="s">
-        <v>117</v>
-      </c>
-      <c r="I107" t="s">
-        <v>118</v>
       </c>
       <c r="J107">
         <v>304500</v>
       </c>
       <c r="K107" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L107">
         <v>2023</v>
@@ -4245,7 +4246,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L108">
         <v>2023</v>
@@ -4253,7 +4254,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B109">
         <v>613</v>
@@ -4268,22 +4269,22 @@
         <v>646</v>
       </c>
       <c r="F109" t="s">
+        <v>118</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>119</v>
+      </c>
+      <c r="I109" t="s">
         <v>120</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-      <c r="I109" t="s">
-        <v>122</v>
       </c>
       <c r="J109">
         <v>3608000</v>
       </c>
       <c r="K109" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L109">
         <v>2023</v>
@@ -4291,7 +4292,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K110" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L110">
         <v>2023</v>
@@ -4299,7 +4300,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B111">
         <v>704</v>
@@ -4314,7 +4315,7 @@
         <v>762</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G111" t="s">
         <v>12</v>
@@ -4323,13 +4324,13 @@
         <v>37</v>
       </c>
       <c r="I111" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J111">
         <v>3912500</v>
       </c>
       <c r="K111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L111">
         <v>2023</v>
@@ -4337,7 +4338,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K112" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L112">
         <v>2023</v>
@@ -4345,7 +4346,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K113" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L113">
         <v>2023</v>
@@ -4353,7 +4354,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K114" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L114">
         <v>2023</v>
@@ -4361,10 +4362,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K115" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L115">
         <v>2023</v>
@@ -4372,7 +4373,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K116" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L116">
         <v>2023</v>
@@ -4380,7 +4381,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B117">
         <v>13</v>
@@ -4395,7 +4396,7 @@
         <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G117" t="s">
         <v>12</v>
@@ -4404,13 +4405,13 @@
         <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J117">
         <v>58500</v>
       </c>
       <c r="K117" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L117">
         <v>2023</v>
@@ -4418,7 +4419,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K118" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L118">
         <v>2023</v>
@@ -4426,7 +4427,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B119">
         <v>9</v>
@@ -4441,7 +4442,7 @@
         <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -4450,13 +4451,13 @@
         <v>12</v>
       </c>
       <c r="I119" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J119">
         <v>40500</v>
       </c>
       <c r="K119" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L119">
         <v>2023</v>
@@ -4464,7 +4465,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K120" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L120">
         <v>2023</v>
@@ -4472,7 +4473,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -4487,7 +4488,7 @@
         <v>6</v>
       </c>
       <c r="F121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
@@ -4496,13 +4497,13 @@
         <v>12</v>
       </c>
       <c r="I121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J121">
         <v>22500</v>
       </c>
       <c r="K121" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L121">
         <v>2023</v>
@@ -4510,7 +4511,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K122" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L122">
         <v>2023</v>
@@ -4518,7 +4519,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B123">
         <v>25</v>
@@ -4533,7 +4534,7 @@
         <v>26</v>
       </c>
       <c r="F123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
@@ -4542,13 +4543,13 @@
         <v>12</v>
       </c>
       <c r="I123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J123">
         <v>112500</v>
       </c>
       <c r="K123" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L123">
         <v>2023</v>
@@ -4556,7 +4557,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K124" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L124">
         <v>2023</v>
@@ -4564,7 +4565,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B125">
         <v>88</v>
@@ -4579,7 +4580,7 @@
         <v>93</v>
       </c>
       <c r="F125" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G125" t="s">
         <v>12</v>
@@ -4588,13 +4589,13 @@
         <v>12</v>
       </c>
       <c r="I125" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J125">
         <v>396000</v>
       </c>
       <c r="K125" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L125">
         <v>2023</v>
@@ -4602,7 +4603,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K126" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L126">
         <v>2023</v>
@@ -4610,7 +4611,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B127">
         <v>34</v>
@@ -4625,7 +4626,7 @@
         <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G127" t="s">
         <v>12</v>
@@ -4634,13 +4635,13 @@
         <v>12</v>
       </c>
       <c r="I127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J127">
         <v>153000</v>
       </c>
       <c r="K127" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L127">
         <v>2023</v>
@@ -4648,7 +4649,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K128" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L128">
         <v>2023</v>
@@ -4656,7 +4657,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -4671,7 +4672,7 @@
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G129" t="s">
         <v>12</v>
@@ -4680,13 +4681,13 @@
         <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J129">
         <v>31500</v>
       </c>
       <c r="K129" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L129">
         <v>2023</v>
@@ -4694,7 +4695,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K130" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L130">
         <v>2023</v>
@@ -4702,7 +4703,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B131">
         <v>77</v>
@@ -4717,7 +4718,7 @@
         <v>83</v>
       </c>
       <c r="F131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G131" t="s">
         <v>12</v>
@@ -4726,13 +4727,13 @@
         <v>12</v>
       </c>
       <c r="I131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J131">
         <v>346500</v>
       </c>
       <c r="K131" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L131">
         <v>2023</v>
@@ -4740,7 +4741,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K132" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L132">
         <v>2023</v>
@@ -4748,7 +4749,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -4763,7 +4764,7 @@
         <v>5</v>
       </c>
       <c r="F133" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G133" t="s">
         <v>12</v>
@@ -4772,13 +4773,13 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J133">
         <v>22500</v>
       </c>
       <c r="K133" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L133">
         <v>2023</v>
@@ -4786,7 +4787,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K134" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L134">
         <v>2023</v>
@@ -4794,7 +4795,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B135">
         <v>30</v>
@@ -4809,7 +4810,7 @@
         <v>31</v>
       </c>
       <c r="F135" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G135" t="s">
         <v>12</v>
@@ -4818,13 +4819,13 @@
         <v>12</v>
       </c>
       <c r="I135" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J135">
         <v>135000</v>
       </c>
       <c r="K135" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L135">
         <v>2023</v>
@@ -4832,7 +4833,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K136" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L136">
         <v>2023</v>
@@ -4840,7 +4841,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B137">
         <v>27</v>
@@ -4855,7 +4856,7 @@
         <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
@@ -4864,13 +4865,13 @@
         <v>12</v>
       </c>
       <c r="I137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>121500</v>
       </c>
       <c r="K137" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L137">
         <v>2023</v>
@@ -4878,7 +4879,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K138" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L138">
         <v>2023</v>
@@ -4886,7 +4887,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B139">
         <v>26</v>
@@ -4901,7 +4902,7 @@
         <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G139" t="s">
         <v>12</v>
@@ -4910,13 +4911,13 @@
         <v>12</v>
       </c>
       <c r="I139" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J139">
         <v>117000</v>
       </c>
       <c r="K139" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L139">
         <v>2023</v>
@@ -4924,7 +4925,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K140" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L140">
         <v>2023</v>
@@ -4932,7 +4933,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B141">
         <v>28</v>
@@ -4947,7 +4948,7 @@
         <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
@@ -4956,13 +4957,13 @@
         <v>12</v>
       </c>
       <c r="I141" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J141">
         <v>126000</v>
       </c>
       <c r="K141" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L141">
         <v>2023</v>
@@ -4970,7 +4971,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K142" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L142">
         <v>2023</v>
@@ -4978,7 +4979,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B143">
         <v>374</v>
@@ -4993,7 +4994,7 @@
         <v>407</v>
       </c>
       <c r="F143" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
@@ -5002,13 +5003,13 @@
         <v>12</v>
       </c>
       <c r="I143" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J143">
         <v>1683000</v>
       </c>
       <c r="K143" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L143">
         <v>2023</v>
@@ -5016,7 +5017,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K144" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L144">
         <v>2023</v>
@@ -5024,7 +5025,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K145" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L145">
         <v>2023</v>
@@ -5032,7 +5033,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K146" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L146">
         <v>2023</v>
@@ -5040,10 +5041,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K147" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L147">
         <v>2023</v>
@@ -5051,7 +5052,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K148" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L148">
         <v>2023</v>
@@ -5059,7 +5060,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>13</v>
@@ -5074,7 +5075,7 @@
         <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
@@ -5083,13 +5084,13 @@
         <v>12</v>
       </c>
       <c r="I149" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J149">
         <v>52000</v>
       </c>
       <c r="K149" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L149">
         <v>2023</v>
@@ -5097,7 +5098,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K150" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L150">
         <v>2023</v>
@@ -5105,7 +5106,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>17</v>
@@ -5120,7 +5121,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
@@ -5129,13 +5130,13 @@
         <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J151">
         <v>68000</v>
       </c>
       <c r="K151" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L151">
         <v>2023</v>
@@ -5143,7 +5144,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K152" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L152">
         <v>2023</v>
@@ -5151,7 +5152,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>15</v>
@@ -5166,7 +5167,7 @@
         <v>15</v>
       </c>
       <c r="F153" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G153" t="s">
         <v>12</v>
@@ -5175,13 +5176,13 @@
         <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J153">
         <v>60000</v>
       </c>
       <c r="K153" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L153">
         <v>2023</v>
@@ -5189,7 +5190,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K154" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L154">
         <v>2023</v>
@@ -5197,7 +5198,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B155">
         <v>46</v>
@@ -5212,7 +5213,7 @@
         <v>47</v>
       </c>
       <c r="F155" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G155" t="s">
         <v>12</v>
@@ -5221,13 +5222,13 @@
         <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J155">
         <v>184000</v>
       </c>
       <c r="K155" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L155">
         <v>2023</v>
@@ -5235,7 +5236,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K156" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L156">
         <v>2023</v>
@@ -5243,7 +5244,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B157">
         <v>12</v>
@@ -5258,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G157" t="s">
         <v>12</v>
@@ -5267,13 +5268,13 @@
         <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J157">
         <v>48000</v>
       </c>
       <c r="K157" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L157">
         <v>2023</v>
@@ -5281,7 +5282,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K158" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L158">
         <v>2023</v>
@@ -5289,7 +5290,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>49</v>
@@ -5304,7 +5305,7 @@
         <v>50</v>
       </c>
       <c r="F159" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
@@ -5313,13 +5314,13 @@
         <v>12</v>
       </c>
       <c r="I159" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J159">
         <v>196000</v>
       </c>
       <c r="K159" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L159">
         <v>2023</v>
@@ -5327,7 +5328,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K160" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L160">
         <v>2023</v>
@@ -5335,7 +5336,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B161">
         <v>28</v>
@@ -5350,7 +5351,7 @@
         <v>34</v>
       </c>
       <c r="F161" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G161" t="s">
         <v>12</v>
@@ -5359,13 +5360,13 @@
         <v>12</v>
       </c>
       <c r="I161" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J161">
         <v>112000</v>
       </c>
       <c r="K161" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L161">
         <v>2023</v>
@@ -5373,7 +5374,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K162" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L162">
         <v>2023</v>
@@ -5381,7 +5382,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>21</v>
@@ -5411,7 +5412,7 @@
         <v>84000</v>
       </c>
       <c r="K163" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L163">
         <v>2023</v>
@@ -5419,7 +5420,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K164" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L164">
         <v>2023</v>
@@ -5427,7 +5428,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B165">
         <v>201</v>
@@ -5442,7 +5443,7 @@
         <v>209</v>
       </c>
       <c r="F165" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G165" t="s">
         <v>12</v>
@@ -5451,13 +5452,13 @@
         <v>12</v>
       </c>
       <c r="I165" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J165">
         <v>804000</v>
       </c>
       <c r="K165" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L165">
         <v>2023</v>
@@ -5465,7 +5466,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K166" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L166">
         <v>2023</v>
@@ -5473,7 +5474,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K167" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L167">
         <v>2023</v>
@@ -5481,7 +5482,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K168" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L168">
         <v>2023</v>
@@ -5489,10 +5490,10 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K169" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L169">
         <v>2023</v>
@@ -5500,7 +5501,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K170" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L170">
         <v>2023</v>
@@ -5508,7 +5509,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>29</v>
@@ -5523,7 +5524,7 @@
         <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G171" t="s">
         <v>12</v>
@@ -5532,13 +5533,13 @@
         <v>12</v>
       </c>
       <c r="I171" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J171">
         <v>145000</v>
       </c>
       <c r="K171" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L171">
         <v>2023</v>
@@ -5546,7 +5547,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K172" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L172">
         <v>2023</v>
@@ -5554,7 +5555,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>38</v>
@@ -5569,22 +5570,22 @@
         <v>42</v>
       </c>
       <c r="F173" t="s">
+        <v>173</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
+        <v>174</v>
+      </c>
+      <c r="I173" t="s">
         <v>175</v>
-      </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" t="s">
-        <v>176</v>
-      </c>
-      <c r="I173" t="s">
-        <v>177</v>
       </c>
       <c r="J173">
         <v>1970000</v>
       </c>
       <c r="K173" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L173">
         <v>2023</v>
@@ -5592,7 +5593,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K174" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L174">
         <v>2023</v>
@@ -5600,7 +5601,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -5615,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="F175" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G175" t="s">
         <v>12</v>
@@ -5624,13 +5625,13 @@
         <v>69</v>
       </c>
       <c r="I175" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J175">
         <v>240000</v>
       </c>
       <c r="K175" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L175">
         <v>2023</v>
@@ -5638,7 +5639,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K176" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L176">
         <v>2023</v>
@@ -5646,7 +5647,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -5661,7 +5662,7 @@
         <v>7</v>
       </c>
       <c r="F177" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G177" t="s">
         <v>12</v>
@@ -5670,13 +5671,13 @@
         <v>12</v>
       </c>
       <c r="I177" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J177">
         <v>31500</v>
       </c>
       <c r="K177" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L177">
         <v>2023</v>
@@ -5684,7 +5685,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K178" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L178">
         <v>2023</v>
@@ -5692,7 +5693,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B179">
         <v>13</v>
@@ -5707,22 +5708,22 @@
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G179" t="s">
         <v>12</v>
       </c>
       <c r="H179" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I179" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J179">
         <v>625000</v>
       </c>
       <c r="K179" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L179">
         <v>2023</v>
@@ -5730,7 +5731,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K180" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L180">
         <v>2023</v>
@@ -5738,7 +5739,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B181">
         <v>90</v>
@@ -5753,22 +5754,22 @@
         <v>102</v>
       </c>
       <c r="F181" t="s">
+        <v>184</v>
+      </c>
+      <c r="G181" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" t="s">
+        <v>185</v>
+      </c>
+      <c r="I181" t="s">
         <v>186</v>
-      </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
-      <c r="H181" t="s">
-        <v>187</v>
-      </c>
-      <c r="I181" t="s">
-        <v>188</v>
       </c>
       <c r="J181">
         <v>3011500</v>
       </c>
       <c r="K181" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L181">
         <v>2023</v>
@@ -5776,7 +5777,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K182" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L182">
         <v>2023</v>
@@ -5784,7 +5785,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K183" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L183">
         <v>2023</v>
@@ -5792,7 +5793,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K184" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L184">
         <v>2023</v>
@@ -5800,10 +5801,10 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K185" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L185">
         <v>2023</v>
@@ -5811,7 +5812,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K186" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L186">
         <v>2023</v>
@@ -5819,7 +5820,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -5834,7 +5835,7 @@
         <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G187" t="s">
         <v>12</v>
@@ -5843,13 +5844,13 @@
         <v>12</v>
       </c>
       <c r="I187" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J187">
         <v>7000</v>
       </c>
       <c r="K187" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L187">
         <v>2023</v>
@@ -5857,7 +5858,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K188" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L188">
         <v>2023</v>
@@ -5865,7 +5866,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -5895,7 +5896,7 @@
         <v>12000</v>
       </c>
       <c r="K189" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L189">
         <v>2023</v>
@@ -5903,7 +5904,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K190" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L190">
         <v>2023</v>
@@ -5911,7 +5912,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -5938,7 +5939,7 @@
         <v>12</v>
       </c>
       <c r="K191" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L191">
         <v>2023</v>
@@ -5946,7 +5947,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K192" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L192">
         <v>2023</v>
@@ -5954,7 +5955,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>6</v>
@@ -5969,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="F193" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G193" t="s">
         <v>12</v>
@@ -5978,13 +5979,13 @@
         <v>12</v>
       </c>
       <c r="I193" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J193">
         <v>18000</v>
       </c>
       <c r="K193" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L193">
         <v>2023</v>
@@ -5992,7 +5993,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K194" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L194">
         <v>2023</v>
@@ -6000,7 +6001,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -6015,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="F195" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G195" t="s">
         <v>12</v>
@@ -6024,13 +6025,13 @@
         <v>12</v>
       </c>
       <c r="I195" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J195">
         <v>7000</v>
       </c>
       <c r="K195" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L195">
         <v>2023</v>
@@ -6038,7 +6039,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K196" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L196">
         <v>2023</v>
@@ -6046,7 +6047,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B197">
         <v>13</v>
@@ -6076,7 +6077,7 @@
         <v>44000</v>
       </c>
       <c r="K197" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L197">
         <v>2023</v>
@@ -6084,7 +6085,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K198" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L198">
         <v>2023</v>
@@ -6092,7 +6093,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K199" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L199">
         <v>2023</v>
@@ -6100,7 +6101,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K200" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L200">
         <v>2023</v>
@@ -6108,10 +6109,10 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K201" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L201">
         <v>2023</v>
@@ -6119,7 +6120,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K202" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L202">
         <v>2023</v>
@@ -6127,7 +6128,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -6148,16 +6149,16 @@
         <v>12</v>
       </c>
       <c r="H203" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J203">
         <v>325000</v>
       </c>
       <c r="K203" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L203">
         <v>2023</v>
@@ -6165,7 +6166,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K204" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L204">
         <v>2023</v>
@@ -6173,7 +6174,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B205">
         <v>5</v>
@@ -6188,7 +6189,7 @@
         <v>5</v>
       </c>
       <c r="F205" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G205" t="s">
         <v>12</v>
@@ -6197,13 +6198,13 @@
         <v>48</v>
       </c>
       <c r="I205" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J205">
         <v>210000</v>
       </c>
       <c r="K205" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L205">
         <v>2023</v>
@@ -6211,7 +6212,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K206" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L206">
         <v>2023</v>
@@ -6219,7 +6220,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -6249,7 +6250,7 @@
         <v>110000</v>
       </c>
       <c r="K207" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L207">
         <v>2023</v>
@@ -6257,7 +6258,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K208" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L208">
         <v>2023</v>
@@ -6265,7 +6266,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -6280,7 +6281,7 @@
         <v>5</v>
       </c>
       <c r="F209" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G209" t="s">
         <v>12</v>
@@ -6289,13 +6290,13 @@
         <v>12</v>
       </c>
       <c r="I209" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J209">
         <v>90000</v>
       </c>
       <c r="K209" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L209">
         <v>2023</v>
@@ -6303,7 +6304,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K210" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L210">
         <v>2023</v>
@@ -6311,7 +6312,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -6326,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="F211" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G211" t="s">
         <v>12</v>
@@ -6335,13 +6336,13 @@
         <v>12</v>
       </c>
       <c r="I211" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J211">
         <v>120000</v>
       </c>
       <c r="K211" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L211">
         <v>2023</v>
@@ -6349,7 +6350,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L212">
         <v>2023</v>
@@ -6357,7 +6358,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B213">
         <v>21</v>
@@ -6372,22 +6373,22 @@
         <v>23</v>
       </c>
       <c r="F213" t="s">
+        <v>208</v>
+      </c>
+      <c r="G213" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" t="s">
+        <v>209</v>
+      </c>
+      <c r="I213" t="s">
         <v>210</v>
-      </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
-      <c r="H213" t="s">
-        <v>211</v>
-      </c>
-      <c r="I213" t="s">
-        <v>212</v>
       </c>
       <c r="J213">
         <v>855000</v>
       </c>
       <c r="K213" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L213">
         <v>2023</v>
@@ -6395,7 +6396,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K214" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L214">
         <v>2023</v>
@@ -6403,7 +6404,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K215" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L215">
         <v>2023</v>
@@ -6411,7 +6412,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L216">
         <v>2023</v>
@@ -6419,10 +6420,10 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K217" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L217">
         <v>2023</v>
@@ -6430,7 +6431,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K218" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L218">
         <v>2023</v>
@@ -6438,7 +6439,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B219">
         <v>56</v>
@@ -6453,7 +6454,7 @@
         <v>56</v>
       </c>
       <c r="F219" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G219" t="s">
         <v>12</v>
@@ -6462,13 +6463,13 @@
         <v>12</v>
       </c>
       <c r="I219" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J219">
         <v>336000</v>
       </c>
       <c r="K219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L219">
         <v>2023</v>
@@ -6476,7 +6477,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K220" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L220">
         <v>2023</v>
@@ -6484,7 +6485,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B221">
         <v>15</v>
@@ -6514,7 +6515,7 @@
         <v>84000</v>
       </c>
       <c r="K221" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L221">
         <v>2023</v>
@@ -6522,7 +6523,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K222" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L222">
         <v>2023</v>
@@ -6530,7 +6531,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B223">
         <v>97</v>
@@ -6545,7 +6546,7 @@
         <v>97</v>
       </c>
       <c r="F223" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G223" t="s">
         <v>12</v>
@@ -6554,13 +6555,13 @@
         <v>41</v>
       </c>
       <c r="I223" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J223">
         <v>558000</v>
       </c>
       <c r="K223" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L223">
         <v>2023</v>
@@ -6568,7 +6569,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K224" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L224">
         <v>2023</v>
@@ -6576,7 +6577,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B225">
         <v>60</v>
@@ -6591,7 +6592,7 @@
         <v>61</v>
       </c>
       <c r="F225" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G225" t="s">
         <v>12</v>
@@ -6600,13 +6601,13 @@
         <v>12</v>
       </c>
       <c r="I225" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J225">
         <v>354000</v>
       </c>
       <c r="K225" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L225">
         <v>2023</v>
@@ -6614,7 +6615,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K226" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L226">
         <v>2023</v>
@@ -6622,7 +6623,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B227">
         <v>5</v>
@@ -6652,7 +6653,7 @@
         <v>30000</v>
       </c>
       <c r="K227" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L227">
         <v>2023</v>
@@ -6660,7 +6661,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L228">
         <v>2023</v>
@@ -6668,7 +6669,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B229">
         <v>233</v>
@@ -6683,7 +6684,7 @@
         <v>234</v>
       </c>
       <c r="F229" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G229" t="s">
         <v>12</v>
@@ -6692,13 +6693,13 @@
         <v>41</v>
       </c>
       <c r="I229" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J229">
         <v>1362000</v>
       </c>
       <c r="K229" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L229">
         <v>2023</v>
@@ -6706,7 +6707,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K230" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L230">
         <v>2023</v>
@@ -6714,7 +6715,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K231" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L231">
         <v>2023</v>
@@ -6722,7 +6723,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K232" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L232">
         <v>2023</v>
@@ -6730,10 +6731,10 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K233" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L233">
         <v>2023</v>
@@ -6741,7 +6742,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K234" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L234">
         <v>2023</v>
@@ -6749,7 +6750,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -6764,7 +6765,7 @@
         <v>2</v>
       </c>
       <c r="F235" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G235" t="s">
         <v>12</v>
@@ -6773,13 +6774,13 @@
         <v>12</v>
       </c>
       <c r="I235" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J235">
         <v>7000</v>
       </c>
       <c r="K235" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L235">
         <v>2023</v>
@@ -6787,7 +6788,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K236" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L236">
         <v>2023</v>
@@ -6795,7 +6796,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B237">
         <v>10</v>
@@ -6810,7 +6811,7 @@
         <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G237" t="s">
         <v>12</v>
@@ -6819,13 +6820,13 @@
         <v>12</v>
       </c>
       <c r="I237" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J237">
         <v>25000</v>
       </c>
       <c r="K237" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L237">
         <v>2023</v>
@@ -6833,7 +6834,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K238" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L238">
         <v>2023</v>
@@ -6841,7 +6842,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -6856,7 +6857,7 @@
         <v>8</v>
       </c>
       <c r="F239" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G239" t="s">
         <v>12</v>
@@ -6865,13 +6866,13 @@
         <v>12</v>
       </c>
       <c r="I239" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J239">
         <v>70000</v>
       </c>
       <c r="K239" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L239">
         <v>2023</v>
@@ -6879,7 +6880,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K240" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L240">
         <v>2023</v>
@@ -6887,7 +6888,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B241">
         <v>14</v>
@@ -6902,7 +6903,7 @@
         <v>21</v>
       </c>
       <c r="F241" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G241" t="s">
         <v>12</v>
@@ -6911,13 +6912,13 @@
         <v>12</v>
       </c>
       <c r="I241" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J241">
         <v>102000</v>
       </c>
       <c r="K241" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L241">
         <v>2023</v>
@@ -6925,7 +6926,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K242" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L242">
         <v>2023</v>
@@ -6933,7 +6934,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K243" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L243">
         <v>2023</v>
@@ -6941,7 +6942,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K244" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L244">
         <v>2023</v>
@@ -6949,10 +6950,10 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K245" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L245">
         <v>2023</v>
@@ -6960,7 +6961,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K246" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L246">
         <v>2023</v>
@@ -6968,7 +6969,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B247">
         <v>39</v>
@@ -6983,7 +6984,7 @@
         <v>42</v>
       </c>
       <c r="F247" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G247" t="s">
         <v>12</v>
@@ -6992,13 +6993,13 @@
         <v>41</v>
       </c>
       <c r="I247" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J247">
         <v>150000</v>
       </c>
       <c r="K247" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L247">
         <v>2023</v>
@@ -7006,7 +7007,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K248" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L248">
         <v>2023</v>
@@ -7014,7 +7015,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -7044,7 +7045,7 @@
         <v>6000</v>
       </c>
       <c r="K249" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L249">
         <v>2023</v>
@@ -7052,7 +7053,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K250" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L250">
         <v>2023</v>
@@ -7060,7 +7061,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B251">
         <v>8</v>
@@ -7090,7 +7091,7 @@
         <v>40000</v>
       </c>
       <c r="K251" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L251">
         <v>2023</v>
@@ -7098,7 +7099,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K252" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L252">
         <v>2023</v>
@@ -7106,7 +7107,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B253">
         <v>13</v>
@@ -7121,7 +7122,7 @@
         <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G253" t="s">
         <v>12</v>
@@ -7130,13 +7131,13 @@
         <v>12</v>
       </c>
       <c r="I253" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J253">
         <v>65000</v>
       </c>
       <c r="K253" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L253">
         <v>2023</v>
@@ -7144,7 +7145,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K254" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L254">
         <v>2023</v>
@@ -7152,7 +7153,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B255">
         <v>61</v>
@@ -7167,7 +7168,7 @@
         <v>66</v>
       </c>
       <c r="F255" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G255" t="s">
         <v>12</v>
@@ -7176,13 +7177,13 @@
         <v>41</v>
       </c>
       <c r="I255" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J255">
         <v>261000</v>
       </c>
       <c r="K255" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L255">
         <v>2023</v>
@@ -7190,7 +7191,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K256" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L256">
         <v>2023</v>
@@ -7198,7 +7199,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K257" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L257">
         <v>2023</v>
@@ -7206,7 +7207,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K258" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L258">
         <v>2023</v>
@@ -7214,10 +7215,10 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K259" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L259">
         <v>2023</v>
@@ -7225,7 +7226,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K260" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L260">
         <v>2023</v>
@@ -7233,7 +7234,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B261">
         <v>4</v>
@@ -7263,7 +7264,7 @@
         <v>30000</v>
       </c>
       <c r="K261" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L261">
         <v>2023</v>
@@ -7271,7 +7272,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K262" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L262">
         <v>2023</v>
@@ -7279,7 +7280,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B263">
         <v>21</v>
@@ -7294,7 +7295,7 @@
         <v>21</v>
       </c>
       <c r="F263" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G263" t="s">
         <v>12</v>
@@ -7303,13 +7304,13 @@
         <v>12</v>
       </c>
       <c r="I263" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J263">
         <v>153000</v>
       </c>
       <c r="K263" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L263">
         <v>2023</v>
@@ -7317,7 +7318,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K264" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L264">
         <v>2023</v>
@@ -7325,7 +7326,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B265">
         <v>7</v>
@@ -7340,7 +7341,7 @@
         <v>7</v>
       </c>
       <c r="F265" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G265" t="s">
         <v>12</v>
@@ -7349,13 +7350,13 @@
         <v>12</v>
       </c>
       <c r="I265" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J265">
         <v>56000</v>
       </c>
       <c r="K265" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L265">
         <v>2023</v>
@@ -7363,7 +7364,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K266" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L266">
         <v>2023</v>
@@ -7371,7 +7372,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B267">
         <v>4</v>
@@ -7386,7 +7387,7 @@
         <v>4</v>
       </c>
       <c r="F267" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G267" t="s">
         <v>12</v>
@@ -7395,13 +7396,13 @@
         <v>12</v>
       </c>
       <c r="I267" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J267">
         <v>32000</v>
       </c>
       <c r="K267" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L267">
         <v>2023</v>
@@ -7409,7 +7410,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K268" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L268">
         <v>2023</v>
@@ -7417,7 +7418,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B269">
         <v>7</v>
@@ -7447,7 +7448,7 @@
         <v>84000</v>
       </c>
       <c r="K269" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L269">
         <v>2023</v>
@@ -7455,7 +7456,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K270" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L270">
         <v>2023</v>
@@ -7463,7 +7464,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B271">
         <v>8</v>
@@ -7478,7 +7479,7 @@
         <v>8</v>
       </c>
       <c r="F271" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G271" t="s">
         <v>12</v>
@@ -7487,13 +7488,13 @@
         <v>12</v>
       </c>
       <c r="I271" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J271">
         <v>64000</v>
       </c>
       <c r="K271" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L271">
         <v>2023</v>
@@ -7501,7 +7502,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K272" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L272">
         <v>2023</v>
@@ -7509,7 +7510,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B273">
         <v>48</v>
@@ -7524,7 +7525,7 @@
         <v>50</v>
       </c>
       <c r="F273" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G273" t="s">
         <v>12</v>
@@ -7533,13 +7534,13 @@
         <v>12</v>
       </c>
       <c r="I273" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J273">
         <v>345000</v>
       </c>
       <c r="K273" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L273">
         <v>2023</v>
@@ -7547,7 +7548,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K274" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L274">
         <v>2023</v>
@@ -7555,7 +7556,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B275">
         <v>63</v>
@@ -7570,7 +7571,7 @@
         <v>63</v>
       </c>
       <c r="F275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G275" t="s">
         <v>12</v>
@@ -7579,13 +7580,13 @@
         <v>12</v>
       </c>
       <c r="I275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J275">
         <v>360000</v>
       </c>
       <c r="K275" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L275">
         <v>2023</v>
@@ -7593,7 +7594,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K276" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L276">
         <v>2023</v>
@@ -7601,7 +7602,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B277">
         <v>162</v>
@@ -7616,7 +7617,7 @@
         <v>164</v>
       </c>
       <c r="F277" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G277" t="s">
         <v>12</v>
@@ -7625,13 +7626,13 @@
         <v>12</v>
       </c>
       <c r="I277" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J277">
         <v>1124000</v>
       </c>
       <c r="K277" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L277">
         <v>2023</v>
@@ -7639,7 +7640,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K278" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L278">
         <v>2023</v>
@@ -7647,7 +7648,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K279" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L279">
         <v>2023</v>
@@ -7655,7 +7656,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K280" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L280">
         <v>2023</v>
@@ -7663,10 +7664,10 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K281" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L281">
         <v>2023</v>
@@ -7674,7 +7675,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K282" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L282">
         <v>2023</v>
@@ -7682,7 +7683,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B283">
         <v>7</v>
@@ -7697,7 +7698,7 @@
         <v>29</v>
       </c>
       <c r="F283" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G283" t="s">
         <v>12</v>
@@ -7706,13 +7707,13 @@
         <v>12</v>
       </c>
       <c r="I283" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J283">
         <v>280000</v>
       </c>
       <c r="K283" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L283">
         <v>2023</v>
@@ -7720,7 +7721,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K284" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L284">
         <v>2023</v>
@@ -7728,7 +7729,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B285">
         <v>3</v>
@@ -7743,7 +7744,7 @@
         <v>3</v>
       </c>
       <c r="F285" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G285" t="s">
         <v>12</v>
@@ -7752,13 +7753,13 @@
         <v>12</v>
       </c>
       <c r="I285" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J285">
         <v>9000</v>
       </c>
       <c r="K285" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L285">
         <v>2023</v>
@@ -7766,7 +7767,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K286" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L286">
         <v>2023</v>
@@ -7774,7 +7775,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -7804,7 +7805,7 @@
         <v>40000</v>
       </c>
       <c r="K287" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L287">
         <v>2023</v>
@@ -7812,7 +7813,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K288" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L288">
         <v>2023</v>
@@ -7820,7 +7821,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B289">
         <v>11</v>
@@ -7835,7 +7836,7 @@
         <v>37</v>
       </c>
       <c r="F289" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G289" t="s">
         <v>12</v>
@@ -7844,13 +7845,13 @@
         <v>12</v>
       </c>
       <c r="I289" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J289">
         <v>329000</v>
       </c>
       <c r="K289" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L289">
         <v>2023</v>
@@ -7858,7 +7859,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K290" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L290">
         <v>2023</v>
@@ -7866,7 +7867,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K291" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L291">
         <v>2023</v>
@@ -7874,7 +7875,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K292" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L292">
         <v>2023</v>
@@ -7882,10 +7883,10 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K293" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L293">
         <v>2023</v>
@@ -7893,7 +7894,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K294" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L294">
         <v>2023</v>
@@ -7901,7 +7902,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B295">
         <v>17</v>
@@ -7916,7 +7917,7 @@
         <v>18</v>
       </c>
       <c r="F295" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G295" t="s">
         <v>12</v>
@@ -7925,13 +7926,13 @@
         <v>12</v>
       </c>
       <c r="I295" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J295">
         <v>68000</v>
       </c>
       <c r="K295" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L295">
         <v>2023</v>
@@ -7939,7 +7940,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K296" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L296">
         <v>2023</v>
@@ -7947,7 +7948,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -7962,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="F297" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G297" t="s">
         <v>12</v>
@@ -7971,13 +7972,13 @@
         <v>12</v>
       </c>
       <c r="I297" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J297">
         <v>4500</v>
       </c>
       <c r="K297" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L297">
         <v>2023</v>
@@ -7985,7 +7986,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K298" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L298">
         <v>2023</v>
@@ -7993,7 +7994,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B299">
         <v>14</v>
@@ -8008,7 +8009,7 @@
         <v>15</v>
       </c>
       <c r="F299" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G299" t="s">
         <v>12</v>
@@ -8017,13 +8018,13 @@
         <v>12</v>
       </c>
       <c r="I299" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J299">
         <v>56000</v>
       </c>
       <c r="K299" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L299">
         <v>2023</v>
@@ -8031,7 +8032,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K300" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L300">
         <v>2023</v>
@@ -8039,7 +8040,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -8054,7 +8055,7 @@
         <v>6</v>
       </c>
       <c r="F301" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G301" t="s">
         <v>12</v>
@@ -8063,13 +8064,13 @@
         <v>12</v>
       </c>
       <c r="I301" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J301">
         <v>18000</v>
       </c>
       <c r="K301" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L301">
         <v>2023</v>
@@ -8077,7 +8078,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K302" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L302">
         <v>2023</v>
@@ -8085,7 +8086,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B303">
         <v>3</v>
@@ -8115,7 +8116,7 @@
         <v>12000</v>
       </c>
       <c r="K303" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L303">
         <v>2023</v>
@@ -8123,7 +8124,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K304" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L304">
         <v>2023</v>
@@ -8131,7 +8132,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B305">
         <v>13</v>
@@ -8146,7 +8147,7 @@
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G305" t="s">
         <v>12</v>
@@ -8155,13 +8156,13 @@
         <v>12</v>
       </c>
       <c r="I305" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J305">
         <v>52000</v>
       </c>
       <c r="K305" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L305">
         <v>2023</v>
@@ -8169,7 +8170,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K306" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L306">
         <v>2023</v>
@@ -8177,7 +8178,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B307">
         <v>54</v>
@@ -8192,7 +8193,7 @@
         <v>59</v>
       </c>
       <c r="F307" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G307" t="s">
         <v>12</v>
@@ -8201,13 +8202,13 @@
         <v>12</v>
       </c>
       <c r="I307" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J307">
         <v>210500</v>
       </c>
       <c r="K307" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L307">
         <v>2023</v>
@@ -8215,7 +8216,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K308" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L308">
         <v>2023</v>
@@ -8223,7 +8224,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K309" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L309">
         <v>2023</v>
@@ -8231,7 +8232,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K310" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L310">
         <v>2023</v>
@@ -8239,10 +8240,10 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K311" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L311">
         <v>2023</v>
@@ -8250,7 +8251,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K312" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L312">
         <v>2023</v>
@@ -8258,7 +8259,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B313">
         <v>13</v>
@@ -8273,7 +8274,7 @@
         <v>13</v>
       </c>
       <c r="F313" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G313" t="s">
         <v>12</v>
@@ -8282,13 +8283,13 @@
         <v>12</v>
       </c>
       <c r="I313" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J313">
         <v>32500</v>
       </c>
       <c r="K313" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L313">
         <v>2023</v>
@@ -8296,7 +8297,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K314" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L314">
         <v>2023</v>
@@ -8304,7 +8305,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -8319,22 +8320,22 @@
         <v>5</v>
       </c>
       <c r="F315" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G315" t="s">
         <v>12</v>
       </c>
       <c r="H315" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I315" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J315">
         <v>65000</v>
       </c>
       <c r="K315" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L315">
         <v>2023</v>
@@ -8342,7 +8343,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K316" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L316">
         <v>2023</v>
@@ -8350,7 +8351,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B317">
         <v>20</v>
@@ -8380,7 +8381,7 @@
         <v>30000</v>
       </c>
       <c r="K317" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L317">
         <v>2023</v>
@@ -8388,7 +8389,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K318" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L318">
         <v>2023</v>
@@ -8396,7 +8397,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -8411,7 +8412,7 @@
         <v>2</v>
       </c>
       <c r="F319" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G319" t="s">
         <v>12</v>
@@ -8420,13 +8421,13 @@
         <v>12</v>
       </c>
       <c r="I319" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J319">
         <v>35000</v>
       </c>
       <c r="K319" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L319">
         <v>2023</v>
@@ -8434,7 +8435,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K320" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L320">
         <v>2023</v>
@@ -8442,7 +8443,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B321">
         <v>7</v>
@@ -8457,7 +8458,7 @@
         <v>7</v>
       </c>
       <c r="F321" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G321" t="s">
         <v>12</v>
@@ -8466,13 +8467,13 @@
         <v>12</v>
       </c>
       <c r="I321" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J321">
         <v>17500</v>
       </c>
       <c r="K321" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L321">
         <v>2023</v>
@@ -8480,7 +8481,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K322" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L322">
         <v>2023</v>
@@ -8488,7 +8489,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B323">
         <v>7</v>
@@ -8503,7 +8504,7 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G323" t="s">
         <v>12</v>
@@ -8512,13 +8513,13 @@
         <v>69</v>
       </c>
       <c r="I323" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J323">
         <v>215000</v>
       </c>
       <c r="K323" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L323">
         <v>2023</v>
@@ -8526,7 +8527,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K324" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L324">
         <v>2023</v>
@@ -8534,7 +8535,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B325">
         <v>18</v>
@@ -8549,7 +8550,7 @@
         <v>19</v>
       </c>
       <c r="F325" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G325" t="s">
         <v>12</v>
@@ -8558,13 +8559,13 @@
         <v>12</v>
       </c>
       <c r="I325" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J325">
         <v>45000</v>
       </c>
       <c r="K325" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L325">
         <v>2023</v>
@@ -8572,7 +8573,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K326" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L326">
         <v>2023</v>
@@ -8580,7 +8581,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -8595,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="F327" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G327" t="s">
         <v>12</v>
@@ -8604,13 +8605,13 @@
         <v>12</v>
       </c>
       <c r="I327" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J327">
         <v>50000</v>
       </c>
       <c r="K327" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L327">
         <v>2023</v>
@@ -8618,7 +8619,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K328" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L328">
         <v>2023</v>
@@ -8626,7 +8627,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B329">
         <v>8</v>
@@ -8641,22 +8642,22 @@
         <v>21</v>
       </c>
       <c r="F329" t="s">
+        <v>291</v>
+      </c>
+      <c r="G329" t="s">
+        <v>12</v>
+      </c>
+      <c r="H329" t="s">
+        <v>292</v>
+      </c>
+      <c r="I329" t="s">
         <v>293</v>
-      </c>
-      <c r="G329" t="s">
-        <v>12</v>
-      </c>
-      <c r="H329" t="s">
-        <v>294</v>
-      </c>
-      <c r="I329" t="s">
-        <v>295</v>
       </c>
       <c r="J329">
         <v>305000</v>
       </c>
       <c r="K329" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L329">
         <v>2023</v>
@@ -8664,7 +8665,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K330" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L330">
         <v>2023</v>
@@ -8672,7 +8673,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -8699,7 +8700,7 @@
         <v>12</v>
       </c>
       <c r="K331" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L331">
         <v>2023</v>
@@ -8707,7 +8708,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K332" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L332">
         <v>2023</v>
@@ -8715,7 +8716,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B333">
         <v>5</v>
@@ -8730,7 +8731,7 @@
         <v>5</v>
       </c>
       <c r="F333" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G333" t="s">
         <v>12</v>
@@ -8739,13 +8740,13 @@
         <v>12</v>
       </c>
       <c r="I333" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J333">
         <v>2500</v>
       </c>
       <c r="K333" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L333">
         <v>2023</v>
@@ -8753,7 +8754,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K334" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L334">
         <v>2023</v>
@@ -8761,7 +8762,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B335">
         <v>127</v>
@@ -8776,7 +8777,7 @@
         <v>144</v>
       </c>
       <c r="F335" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G335" t="s">
         <v>12</v>
@@ -8785,13 +8786,13 @@
         <v>12</v>
       </c>
       <c r="I335" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J335">
         <v>317500</v>
       </c>
       <c r="K335" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L335">
         <v>2023</v>
@@ -8799,7 +8800,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K336" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L336">
         <v>2023</v>
@@ -8807,7 +8808,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B337">
         <v>2</v>
@@ -8837,7 +8838,7 @@
         <v>20000</v>
       </c>
       <c r="K337" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L337">
         <v>2023</v>
@@ -8845,7 +8846,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K338" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L338">
         <v>2023</v>
@@ -8853,7 +8854,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B339">
         <v>211</v>
@@ -8868,22 +8869,22 @@
         <v>258</v>
       </c>
       <c r="F339" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G339" t="s">
         <v>12</v>
       </c>
       <c r="H339" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I339" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J339">
         <v>1135000</v>
       </c>
       <c r="K339" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L339">
         <v>2023</v>
@@ -8891,7 +8892,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K340" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L340">
         <v>2023</v>
@@ -8899,7 +8900,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K341" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L341">
         <v>2023</v>
@@ -8907,7 +8908,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K342" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L342">
         <v>2023</v>
@@ -8915,10 +8916,10 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K343" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L343">
         <v>2023</v>
@@ -8926,7 +8927,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K344" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L344">
         <v>2023</v>
@@ -8949,7 +8950,7 @@
         <v>275</v>
       </c>
       <c r="F345" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G345" t="s">
         <v>12</v>
@@ -8958,13 +8959,13 @@
         <v>12</v>
       </c>
       <c r="I345" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J345">
         <v>360000</v>
       </c>
       <c r="K345" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L345">
         <v>2023</v>
@@ -8972,7 +8973,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K346" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L346">
         <v>2023</v>
@@ -8980,7 +8981,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B347">
         <v>78</v>
@@ -8995,7 +8996,7 @@
         <v>89</v>
       </c>
       <c r="F347" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G347" t="s">
         <v>12</v>
@@ -9004,13 +9005,13 @@
         <v>12</v>
       </c>
       <c r="I347" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J347">
         <v>117000</v>
       </c>
       <c r="K347" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L347">
         <v>2023</v>
@@ -9018,7 +9019,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K348" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L348">
         <v>2023</v>
@@ -9026,7 +9027,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -9041,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="F349" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G349" t="s">
         <v>12</v>
@@ -9050,13 +9051,13 @@
         <v>12</v>
       </c>
       <c r="I349" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J349">
         <v>1000</v>
       </c>
       <c r="K349" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L349">
         <v>2023</v>
@@ -9064,7 +9065,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K350" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L350">
         <v>2023</v>
@@ -9072,7 +9073,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B351">
         <v>513</v>
@@ -9087,22 +9088,22 @@
         <v>686</v>
       </c>
       <c r="F351" t="s">
+        <v>308</v>
+      </c>
+      <c r="G351" t="s">
+        <v>12</v>
+      </c>
+      <c r="H351" t="s">
+        <v>309</v>
+      </c>
+      <c r="I351" t="s">
         <v>310</v>
-      </c>
-      <c r="G351" t="s">
-        <v>12</v>
-      </c>
-      <c r="H351" t="s">
-        <v>311</v>
-      </c>
-      <c r="I351" t="s">
-        <v>312</v>
       </c>
       <c r="J351">
         <v>255000</v>
       </c>
       <c r="K351" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L351">
         <v>2023</v>
@@ -9110,7 +9111,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K352" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L352">
         <v>2023</v>
@@ -9118,7 +9119,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B353">
         <v>5</v>
@@ -9133,13 +9134,13 @@
         <v>9</v>
       </c>
       <c r="F353" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G353" t="s">
         <v>12</v>
       </c>
       <c r="H353" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I353" t="s">
         <v>41</v>
@@ -9148,7 +9149,7 @@
         <v>6000</v>
       </c>
       <c r="K353" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L353">
         <v>2023</v>
@@ -9156,7 +9157,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K354" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L354">
         <v>2023</v>
@@ -9164,7 +9165,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B355">
         <v>2</v>
@@ -9179,7 +9180,7 @@
         <v>2</v>
       </c>
       <c r="F355" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G355" t="s">
         <v>12</v>
@@ -9188,13 +9189,13 @@
         <v>12</v>
       </c>
       <c r="I355" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J355">
         <v>5000</v>
       </c>
       <c r="K355" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L355">
         <v>2023</v>
@@ -9202,7 +9203,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K356" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L356">
         <v>2023</v>
@@ -9210,7 +9211,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B357">
         <v>120</v>
@@ -9225,7 +9226,7 @@
         <v>130</v>
       </c>
       <c r="F357" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G357" t="s">
         <v>12</v>
@@ -9234,13 +9235,13 @@
         <v>12</v>
       </c>
       <c r="I357" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J357">
         <v>240000</v>
       </c>
       <c r="K357" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L357">
         <v>2023</v>
@@ -9248,7 +9249,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K358" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L358">
         <v>2023</v>
@@ -9256,7 +9257,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B359">
         <v>39</v>
@@ -9271,7 +9272,7 @@
         <v>39</v>
       </c>
       <c r="F359" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G359" t="s">
         <v>12</v>
@@ -9280,13 +9281,13 @@
         <v>12</v>
       </c>
       <c r="I359" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J359">
         <v>58500</v>
       </c>
       <c r="K359" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L359">
         <v>2023</v>
@@ -9294,7 +9295,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K360" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L360">
         <v>2023</v>
@@ -9302,7 +9303,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B361">
         <v>17</v>
@@ -9317,7 +9318,7 @@
         <v>19</v>
       </c>
       <c r="F361" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G361" t="s">
         <v>12</v>
@@ -9326,13 +9327,13 @@
         <v>12</v>
       </c>
       <c r="I361" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J361">
         <v>34000</v>
       </c>
       <c r="K361" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L361">
         <v>2023</v>
@@ -9340,7 +9341,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K362" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L362">
         <v>2023</v>
@@ -9363,22 +9364,22 @@
         <v>502</v>
       </c>
       <c r="F363" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G363" t="s">
         <v>12</v>
       </c>
       <c r="H363" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I363" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J363">
         <v>1185000</v>
       </c>
       <c r="K363" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L363">
         <v>2023</v>
@@ -9386,7 +9387,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K364" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L364">
         <v>2023</v>
@@ -9394,7 +9395,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B365">
         <v>40</v>
@@ -9424,7 +9425,7 @@
         <v>20000</v>
       </c>
       <c r="K365" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L365">
         <v>2023</v>
@@ -9432,7 +9433,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K366" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L366">
         <v>2023</v>
@@ -9455,7 +9456,7 @@
         <v>112</v>
       </c>
       <c r="F367" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G367" t="s">
         <v>12</v>
@@ -9464,13 +9465,13 @@
         <v>12</v>
       </c>
       <c r="I367" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J367">
         <v>82500</v>
       </c>
       <c r="K367" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L367">
         <v>2023</v>
@@ -9478,7 +9479,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K368" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L368">
         <v>2023</v>
@@ -9486,7 +9487,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B369">
         <v>9</v>
@@ -9501,7 +9502,7 @@
         <v>51</v>
       </c>
       <c r="F369" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G369" t="s">
         <v>12</v>
@@ -9510,13 +9511,13 @@
         <v>12</v>
       </c>
       <c r="I369" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J369">
         <v>18000</v>
       </c>
       <c r="K369" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L369">
         <v>2023</v>
@@ -9524,7 +9525,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K370" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L370">
         <v>2023</v>
@@ -9532,10 +9533,10 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B371" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C371">
         <v>362</v>
@@ -9544,25 +9545,25 @@
         <v>0</v>
       </c>
       <c r="E371" t="s">
+        <v>325</v>
+      </c>
+      <c r="F371" t="s">
+        <v>326</v>
+      </c>
+      <c r="G371" t="s">
+        <v>12</v>
+      </c>
+      <c r="H371" t="s">
         <v>327</v>
       </c>
-      <c r="F371" t="s">
+      <c r="I371" t="s">
         <v>328</v>
-      </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
-      <c r="H371" t="s">
-        <v>329</v>
-      </c>
-      <c r="I371" t="s">
-        <v>330</v>
       </c>
       <c r="J371">
         <v>2382000</v>
       </c>
       <c r="K371" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L371">
         <v>2023</v>
@@ -9570,7 +9571,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K372" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L372">
         <v>2023</v>
@@ -9578,7 +9579,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K373" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L373">
         <v>2023</v>
@@ -9586,7 +9587,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K374" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L374">
         <v>2023</v>
@@ -9594,10 +9595,10 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K375" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L375">
         <v>2023</v>
@@ -9605,7 +9606,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K376" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L376">
         <v>2023</v>
@@ -9613,7 +9614,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B377">
         <v>7</v>
@@ -9628,7 +9629,7 @@
         <v>9</v>
       </c>
       <c r="F377" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G377" t="s">
         <v>12</v>
@@ -9637,13 +9638,13 @@
         <v>12</v>
       </c>
       <c r="I377" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J377">
         <v>31500</v>
       </c>
       <c r="K377" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L377">
         <v>2023</v>
@@ -9651,7 +9652,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K378" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L378">
         <v>2023</v>
@@ -9659,7 +9660,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B379">
         <v>9</v>
@@ -9674,7 +9675,7 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G379" t="s">
         <v>12</v>
@@ -9683,13 +9684,13 @@
         <v>12</v>
       </c>
       <c r="I379" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J379">
         <v>36000</v>
       </c>
       <c r="K379" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L379">
         <v>2023</v>
@@ -9697,7 +9698,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K380" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L380">
         <v>2023</v>
@@ -9705,7 +9706,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B381">
         <v>67</v>
@@ -9720,7 +9721,7 @@
         <v>67</v>
       </c>
       <c r="F381" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G381" t="s">
         <v>12</v>
@@ -9729,13 +9730,13 @@
         <v>12</v>
       </c>
       <c r="I381" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J381">
         <v>268000</v>
       </c>
       <c r="K381" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L381">
         <v>2023</v>
@@ -9743,7 +9744,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K382" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L382">
         <v>2023</v>
@@ -9751,7 +9752,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B383">
         <v>20</v>
@@ -9766,7 +9767,7 @@
         <v>20</v>
       </c>
       <c r="F383" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G383" t="s">
         <v>12</v>
@@ -9775,13 +9776,13 @@
         <v>12</v>
       </c>
       <c r="I383" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J383">
         <v>70000</v>
       </c>
       <c r="K383" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L383">
         <v>2023</v>
@@ -9789,7 +9790,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K384" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L384">
         <v>2023</v>
@@ -9797,7 +9798,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B385">
         <v>19</v>
@@ -9812,7 +9813,7 @@
         <v>21</v>
       </c>
       <c r="F385" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G385" t="s">
         <v>12</v>
@@ -9821,13 +9822,13 @@
         <v>12</v>
       </c>
       <c r="I385" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J385">
         <v>190000</v>
       </c>
       <c r="K385" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L385">
         <v>2023</v>
@@ -9835,7 +9836,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K386" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L386">
         <v>2023</v>
@@ -9843,7 +9844,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B387">
         <v>9</v>
@@ -9858,7 +9859,7 @@
         <v>12</v>
       </c>
       <c r="F387" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G387" t="s">
         <v>12</v>
@@ -9867,13 +9868,13 @@
         <v>12</v>
       </c>
       <c r="I387" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J387">
         <v>36000</v>
       </c>
       <c r="K387" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L387">
         <v>2023</v>
@@ -9881,7 +9882,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K388" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L388">
         <v>2023</v>
@@ -9889,7 +9890,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B389">
         <v>131</v>
@@ -9904,7 +9905,7 @@
         <v>139</v>
       </c>
       <c r="F389" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G389" t="s">
         <v>12</v>
@@ -9913,13 +9914,13 @@
         <v>12</v>
       </c>
       <c r="I389" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J389">
         <v>631500</v>
       </c>
       <c r="K389" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L389">
         <v>2023</v>
@@ -9927,7 +9928,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K390" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L390">
         <v>2023</v>
@@ -9935,7 +9936,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K391" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L391">
         <v>2023</v>
@@ -9943,7 +9944,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K392" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L392">
         <v>2023</v>
@@ -9951,10 +9952,10 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K393" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L393">
         <v>2023</v>
@@ -9962,7 +9963,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K394" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L394">
         <v>2023</v>
@@ -9970,7 +9971,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B395">
         <v>26</v>
@@ -9985,22 +9986,22 @@
         <v>26</v>
       </c>
       <c r="F395" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G395" t="s">
         <v>12</v>
       </c>
       <c r="H395" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I395" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J395">
         <v>450000</v>
       </c>
       <c r="K395" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L395">
         <v>2023</v>
@@ -10008,7 +10009,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K396" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L396">
         <v>2023</v>
@@ -10016,7 +10017,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -10031,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="F397" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G397" t="s">
         <v>12</v>
@@ -10040,13 +10041,13 @@
         <v>12</v>
       </c>
       <c r="I397" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J397">
         <v>25000</v>
       </c>
       <c r="K397" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L397">
         <v>2023</v>
@@ -10054,7 +10055,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K398" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L398">
         <v>2023</v>
@@ -10062,7 +10063,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B399">
         <v>31</v>
@@ -10083,16 +10084,16 @@
         <v>12</v>
       </c>
       <c r="H399" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I399" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J399">
         <v>455000</v>
       </c>
       <c r="K399" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L399">
         <v>2023</v>
@@ -10100,7 +10101,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K400" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L400">
         <v>2023</v>
@@ -10108,7 +10109,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B401">
         <v>58</v>
@@ -10123,22 +10124,22 @@
         <v>58</v>
       </c>
       <c r="F401" t="s">
+        <v>348</v>
+      </c>
+      <c r="G401" t="s">
+        <v>12</v>
+      </c>
+      <c r="H401" t="s">
+        <v>349</v>
+      </c>
+      <c r="I401" t="s">
         <v>350</v>
-      </c>
-      <c r="G401" t="s">
-        <v>12</v>
-      </c>
-      <c r="H401" t="s">
-        <v>351</v>
-      </c>
-      <c r="I401" t="s">
-        <v>352</v>
       </c>
       <c r="J401">
         <v>930000</v>
       </c>
       <c r="K401" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L401">
         <v>2023</v>
@@ -10146,7 +10147,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K402" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L402">
         <v>2023</v>
@@ -10154,7 +10155,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K403" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L403">
         <v>2023</v>
@@ -10162,7 +10163,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K404" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L404">
         <v>2023</v>
@@ -10170,10 +10171,10 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K405" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L405">
         <v>2023</v>
@@ -10181,7 +10182,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K406" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L406">
         <v>2023</v>
@@ -10189,7 +10190,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -10204,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="F407" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G407" t="s">
         <v>12</v>
@@ -10213,13 +10214,13 @@
         <v>12</v>
       </c>
       <c r="I407" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J407">
         <v>25000</v>
       </c>
       <c r="K407" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L407">
         <v>2023</v>
@@ -10227,7 +10228,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K408" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L408">
         <v>2023</v>
@@ -10235,7 +10236,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B409">
         <v>5</v>
@@ -10250,7 +10251,7 @@
         <v>5</v>
       </c>
       <c r="F409" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G409" t="s">
         <v>12</v>
@@ -10259,13 +10260,13 @@
         <v>12</v>
       </c>
       <c r="I409" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J409">
         <v>125000</v>
       </c>
       <c r="K409" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L409">
         <v>2023</v>
@@ -10273,7 +10274,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K410" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L410">
         <v>2023</v>
@@ -10281,7 +10282,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B411">
         <v>38</v>
@@ -10296,7 +10297,7 @@
         <v>40</v>
       </c>
       <c r="F411" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G411" t="s">
         <v>12</v>
@@ -10305,13 +10306,13 @@
         <v>82</v>
       </c>
       <c r="I411" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J411">
         <v>550000</v>
       </c>
       <c r="K411" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L411">
         <v>2023</v>
@@ -10319,7 +10320,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K412" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L412">
         <v>2023</v>
@@ -10327,7 +10328,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B413">
         <v>44</v>
@@ -10342,7 +10343,7 @@
         <v>46</v>
       </c>
       <c r="F413" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G413" t="s">
         <v>12</v>
@@ -10351,13 +10352,13 @@
         <v>82</v>
       </c>
       <c r="I413" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J413">
         <v>700000</v>
       </c>
       <c r="K413" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L413">
         <v>2023</v>
@@ -10365,7 +10366,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K414" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L414">
         <v>2023</v>
@@ -10373,7 +10374,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K415" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L415">
         <v>2023</v>
@@ -10381,7 +10382,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K416" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L416">
         <v>2023</v>
@@ -10389,10 +10390,10 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K417" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L417">
         <v>2023</v>
@@ -10400,7 +10401,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K418" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L418">
         <v>2023</v>
@@ -10408,7 +10409,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -10423,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="F419" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G419" t="s">
         <v>12</v>
@@ -10432,13 +10433,13 @@
         <v>12</v>
       </c>
       <c r="I419" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J419">
         <v>15000</v>
       </c>
       <c r="K419" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L419">
         <v>2023</v>
@@ -10446,7 +10447,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K420" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L420">
         <v>2023</v>
@@ -10454,7 +10455,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B421">
         <v>6</v>
@@ -10469,7 +10470,7 @@
         <v>6</v>
       </c>
       <c r="F421" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G421" t="s">
         <v>12</v>
@@ -10478,13 +10479,13 @@
         <v>12</v>
       </c>
       <c r="I421" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J421">
         <v>108000</v>
       </c>
       <c r="K421" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L421">
         <v>2023</v>
@@ -10492,7 +10493,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K422" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L422">
         <v>2023</v>
@@ -10500,7 +10501,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B423">
         <v>4</v>
@@ -10515,7 +10516,7 @@
         <v>4</v>
       </c>
       <c r="F423" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G423" t="s">
         <v>12</v>
@@ -10524,13 +10525,13 @@
         <v>12</v>
       </c>
       <c r="I423" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J423">
         <v>80000</v>
       </c>
       <c r="K423" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L423">
         <v>2023</v>
@@ -10538,7 +10539,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K424" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L424">
         <v>2023</v>
@@ -10546,7 +10547,7 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B425">
         <v>4</v>
@@ -10561,7 +10562,7 @@
         <v>4</v>
       </c>
       <c r="F425" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G425" t="s">
         <v>12</v>
@@ -10570,13 +10571,13 @@
         <v>12</v>
       </c>
       <c r="I425" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J425">
         <v>60000</v>
       </c>
       <c r="K425" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L425">
         <v>2023</v>
@@ -10584,7 +10585,7 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K426" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L426">
         <v>2023</v>
@@ -10592,7 +10593,7 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B427">
         <v>4</v>
@@ -10607,7 +10608,7 @@
         <v>4</v>
       </c>
       <c r="F427" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G427" t="s">
         <v>12</v>
@@ -10616,13 +10617,13 @@
         <v>12</v>
       </c>
       <c r="I427" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J427">
         <v>60000</v>
       </c>
       <c r="K427" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L427">
         <v>2023</v>
@@ -10630,7 +10631,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K428" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L428">
         <v>2023</v>
@@ -10638,7 +10639,7 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -10653,7 +10654,7 @@
         <v>1</v>
       </c>
       <c r="F429" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G429" t="s">
         <v>12</v>
@@ -10662,13 +10663,13 @@
         <v>12</v>
       </c>
       <c r="I429" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J429">
         <v>45000</v>
       </c>
       <c r="K429" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L429">
         <v>2023</v>
@@ -10676,7 +10677,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K430" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L430">
         <v>2023</v>
@@ -10684,7 +10685,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B431">
         <v>8</v>
@@ -10699,22 +10700,22 @@
         <v>8</v>
       </c>
       <c r="F431" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G431" t="s">
         <v>12</v>
       </c>
       <c r="H431" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I431" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J431">
         <v>190000</v>
       </c>
       <c r="K431" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L431">
         <v>2023</v>
@@ -10722,7 +10723,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K432" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L432">
         <v>2023</v>
@@ -10730,7 +10731,7 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B433">
         <v>28</v>
@@ -10745,22 +10746,22 @@
         <v>28</v>
       </c>
       <c r="F433" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G433" t="s">
         <v>12</v>
       </c>
       <c r="H433" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I433" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J433">
         <v>558000</v>
       </c>
       <c r="K433" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L433">
         <v>2023</v>
@@ -10768,7 +10769,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K434" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L434">
         <v>2023</v>
@@ -10776,7 +10777,7 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K435" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L435">
         <v>2023</v>
@@ -10784,7 +10785,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K436" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L436">
         <v>2023</v>
@@ -10792,10 +10793,10 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K437" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L437">
         <v>2023</v>
@@ -10803,7 +10804,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K438" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L438">
         <v>2023</v>
@@ -10811,7 +10812,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B439">
         <v>23</v>
@@ -10841,7 +10842,7 @@
         <v>69000</v>
       </c>
       <c r="K439" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L439">
         <v>2023</v>
@@ -10849,7 +10850,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K440" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L440">
         <v>2023</v>
@@ -10857,7 +10858,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B441">
         <v>3</v>
@@ -10872,7 +10873,7 @@
         <v>7</v>
       </c>
       <c r="F441" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G441" t="s">
         <v>12</v>
@@ -10881,13 +10882,13 @@
         <v>12</v>
       </c>
       <c r="I441" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J441">
         <v>120000</v>
       </c>
       <c r="K441" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L441">
         <v>2023</v>
@@ -10895,7 +10896,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K442" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L442">
         <v>2023</v>
@@ -10903,7 +10904,7 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -10918,13 +10919,13 @@
         <v>1</v>
       </c>
       <c r="F443" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G443" t="s">
         <v>12</v>
       </c>
       <c r="H443" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I443" t="s">
         <v>48</v>
@@ -10933,7 +10934,7 @@
         <v>40000</v>
       </c>
       <c r="K443" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L443">
         <v>2023</v>
@@ -10941,7 +10942,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K444" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L444">
         <v>2023</v>
@@ -10949,7 +10950,7 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B445">
         <v>5</v>
@@ -10964,7 +10965,7 @@
         <v>5</v>
       </c>
       <c r="F445" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G445" t="s">
         <v>12</v>
@@ -10973,13 +10974,13 @@
         <v>48</v>
       </c>
       <c r="I445" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J445">
         <v>210000</v>
       </c>
       <c r="K445" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L445">
         <v>2023</v>
@@ -10987,7 +10988,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K446" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L446">
         <v>2023</v>
@@ -10995,7 +10996,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B447">
         <v>0</v>
@@ -11022,7 +11023,7 @@
         <v>12</v>
       </c>
       <c r="K447" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L447">
         <v>2023</v>
@@ -11030,7 +11031,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K448" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L448">
         <v>2023</v>
@@ -11038,7 +11039,7 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B449">
         <v>32</v>
@@ -11053,22 +11054,22 @@
         <v>46</v>
       </c>
       <c r="F449" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G449" t="s">
         <v>12</v>
       </c>
       <c r="H449" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I449" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J449">
         <v>439000</v>
       </c>
       <c r="K449" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L449">
         <v>2023</v>
@@ -11076,7 +11077,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K450" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L450">
         <v>2023</v>
@@ -11084,7 +11085,7 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K451" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L451">
         <v>2023</v>
@@ -11092,7 +11093,7 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K452" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L452">
         <v>2023</v>
@@ -11100,10 +11101,10 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K453" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L453">
         <v>2023</v>
@@ -11111,7 +11112,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K454" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L454">
         <v>2023</v>
@@ -11119,7 +11120,7 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B455">
         <v>49</v>
@@ -11134,7 +11135,7 @@
         <v>53</v>
       </c>
       <c r="F455" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G455" t="s">
         <v>12</v>
@@ -11143,13 +11144,13 @@
         <v>12</v>
       </c>
       <c r="I455" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J455">
         <v>196000</v>
       </c>
       <c r="K455" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L455">
         <v>2023</v>
@@ -11157,7 +11158,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K456" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L456">
         <v>2023</v>
@@ -11165,7 +11166,7 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B457">
         <v>6</v>
@@ -11180,7 +11181,7 @@
         <v>11</v>
       </c>
       <c r="F457" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G457" t="s">
         <v>12</v>
@@ -11189,13 +11190,13 @@
         <v>69</v>
       </c>
       <c r="I457" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J457">
         <v>270000</v>
       </c>
       <c r="K457" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L457">
         <v>2023</v>
@@ -11203,7 +11204,7 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K458" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L458">
         <v>2023</v>
@@ -11211,7 +11212,7 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B459">
         <v>10</v>
@@ -11241,7 +11242,7 @@
         <v>40000</v>
       </c>
       <c r="K459" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L459">
         <v>2023</v>
@@ -11249,7 +11250,7 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K460" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L460">
         <v>2023</v>
@@ -11257,7 +11258,7 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -11272,22 +11273,22 @@
         <v>2</v>
       </c>
       <c r="F461" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G461" t="s">
         <v>12</v>
       </c>
       <c r="H461" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I461" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J461">
         <v>45000</v>
       </c>
       <c r="K461" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L461">
         <v>2023</v>
@@ -11295,7 +11296,7 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K462" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L462">
         <v>2023</v>
@@ -11303,7 +11304,7 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B463">
         <v>5</v>
@@ -11318,22 +11319,22 @@
         <v>5</v>
       </c>
       <c r="F463" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G463" t="s">
         <v>12</v>
       </c>
       <c r="H463" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I463" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J463">
         <v>265000</v>
       </c>
       <c r="K463" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L463">
         <v>2023</v>
@@ -11341,7 +11342,7 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K464" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L464">
         <v>2023</v>
@@ -11349,7 +11350,7 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B465">
         <v>2</v>
@@ -11370,16 +11371,16 @@
         <v>12</v>
       </c>
       <c r="H465" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I465" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J465">
         <v>100000</v>
       </c>
       <c r="K465" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L465">
         <v>2023</v>
@@ -11387,7 +11388,7 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K466" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L466">
         <v>2023</v>
@@ -11395,7 +11396,7 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -11410,22 +11411,22 @@
         <v>1</v>
       </c>
       <c r="F467" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G467" t="s">
         <v>12</v>
       </c>
       <c r="H467" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I467" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J467">
         <v>60000</v>
       </c>
       <c r="K467" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L467">
         <v>2023</v>
@@ -11433,7 +11434,7 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K468" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L468">
         <v>2023</v>
@@ -11441,7 +11442,7 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -11468,7 +11469,7 @@
         <v>12</v>
       </c>
       <c r="K469" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L469">
         <v>2023</v>
@@ -11476,7 +11477,7 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K470" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L470">
         <v>2023</v>
@@ -11484,7 +11485,7 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B471">
         <v>17</v>
@@ -11499,7 +11500,7 @@
         <v>20</v>
       </c>
       <c r="F471" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G471" t="s">
         <v>12</v>
@@ -11508,13 +11509,13 @@
         <v>12</v>
       </c>
       <c r="I471" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J471">
         <v>59500</v>
       </c>
       <c r="K471" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L471">
         <v>2023</v>
@@ -11522,7 +11523,7 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K472" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L472">
         <v>2023</v>
@@ -11530,7 +11531,7 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B473">
         <v>7</v>
@@ -11545,22 +11546,22 @@
         <v>11</v>
       </c>
       <c r="F473" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G473" t="s">
         <v>12</v>
       </c>
       <c r="H473" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I473" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J473">
         <v>270000</v>
       </c>
       <c r="K473" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L473">
         <v>2023</v>
@@ -11568,7 +11569,7 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K474" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L474">
         <v>2023</v>
@@ -11576,7 +11577,7 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -11591,22 +11592,22 @@
         <v>1</v>
       </c>
       <c r="F475" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G475" t="s">
         <v>12</v>
       </c>
       <c r="H475" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I475" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J475">
         <v>50000</v>
       </c>
       <c r="K475" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L475">
         <v>2023</v>
@@ -11614,7 +11615,7 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K476" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L476">
         <v>2023</v>
@@ -11622,7 +11623,7 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B477">
         <v>6</v>
@@ -11637,7 +11638,7 @@
         <v>8</v>
       </c>
       <c r="F477" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G477" t="s">
         <v>12</v>
@@ -11646,13 +11647,13 @@
         <v>48</v>
       </c>
       <c r="I477" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J477">
         <v>230000</v>
       </c>
       <c r="K477" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L477">
         <v>2023</v>
@@ -11660,7 +11661,7 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K478" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L478">
         <v>2023</v>
@@ -11668,7 +11669,7 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B479">
         <v>27</v>
@@ -11683,7 +11684,7 @@
         <v>27</v>
       </c>
       <c r="F479" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G479" t="s">
         <v>12</v>
@@ -11692,13 +11693,13 @@
         <v>12</v>
       </c>
       <c r="I479" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J479">
         <v>81000</v>
       </c>
       <c r="K479" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L479">
         <v>2023</v>
@@ -11706,7 +11707,7 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K480" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L480">
         <v>2023</v>
@@ -11714,7 +11715,7 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B481">
         <v>6</v>
@@ -11729,22 +11730,22 @@
         <v>11</v>
       </c>
       <c r="F481" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G481" t="s">
         <v>12</v>
       </c>
       <c r="H481" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I481" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J481">
         <v>235000</v>
       </c>
       <c r="K481" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L481">
         <v>2023</v>
@@ -11752,7 +11753,7 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K482" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L482">
         <v>2023</v>
@@ -11760,7 +11761,7 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B483">
         <v>138</v>
@@ -11775,22 +11776,22 @@
         <v>166</v>
       </c>
       <c r="F483" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G483" t="s">
         <v>12</v>
       </c>
       <c r="H483" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I483" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J483">
         <v>1901500</v>
       </c>
       <c r="K483" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L483">
         <v>2023</v>
@@ -11798,7 +11799,7 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K484" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L484">
         <v>2023</v>
@@ -11806,7 +11807,7 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K485" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L485">
         <v>2023</v>
@@ -11814,7 +11815,7 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K486" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L486">
         <v>2023</v>
@@ -11822,10 +11823,10 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B487" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C487">
         <v>895</v>
@@ -11834,25 +11835,25 @@
         <v>0</v>
       </c>
       <c r="E487" t="s">
+        <v>409</v>
+      </c>
+      <c r="F487" t="s">
+        <v>410</v>
+      </c>
+      <c r="G487" t="s">
+        <v>12</v>
+      </c>
+      <c r="H487" t="s">
         <v>411</v>
       </c>
-      <c r="F487" t="s">
+      <c r="I487" t="s">
         <v>412</v>
-      </c>
-      <c r="G487" t="s">
-        <v>12</v>
-      </c>
-      <c r="H487" t="s">
-        <v>413</v>
-      </c>
-      <c r="I487" t="s">
-        <v>414</v>
       </c>
       <c r="J487">
         <v>31402000</v>
       </c>
       <c r="K487" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L487">
         <v>2023</v>
@@ -11860,7 +11861,7 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K488" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L488">
         <v>2023</v>
@@ -11868,13 +11869,13 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F489" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K489" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L489">
         <v>2023</v>
@@ -11882,7 +11883,7 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K490" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L490">
         <v>2023</v>
@@ -11890,13 +11891,13 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F491" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K491" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L491">
         <v>2023</v>
@@ -11904,7 +11905,7 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K492" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L492">
         <v>2023</v>
@@ -11912,10 +11913,10 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B493" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C493">
         <v>895</v>
@@ -11924,13 +11925,13 @@
         <v>0</v>
       </c>
       <c r="E493" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F493" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K493" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L493">
         <v>2023</v>
